--- a/static/predict_result.xlsx
+++ b/static/predict_result.xlsx
@@ -14,78 +14,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>C10A</t>
+  </si>
+  <si>
+    <t>C10IP</t>
+  </si>
+  <si>
+    <t>C10N</t>
+  </si>
+  <si>
+    <t>C10NP</t>
+  </si>
+  <si>
+    <t>C5IP</t>
+  </si>
+  <si>
+    <t>C5N</t>
   </si>
   <si>
     <t>C5NP</t>
   </si>
   <si>
-    <t>C5IP</t>
-  </si>
-  <si>
-    <t>C5N</t>
+    <t>C6A</t>
+  </si>
+  <si>
+    <t>C6IP</t>
+  </si>
+  <si>
+    <t>C6N</t>
   </si>
   <si>
     <t>C6NP</t>
   </si>
   <si>
-    <t>C6IP</t>
-  </si>
-  <si>
-    <t>C6N</t>
-  </si>
-  <si>
-    <t>C6A</t>
+    <t>C7A</t>
+  </si>
+  <si>
+    <t>C7IP</t>
+  </si>
+  <si>
+    <t>C7N</t>
   </si>
   <si>
     <t>C7NP</t>
   </si>
   <si>
-    <t>C7IP</t>
-  </si>
-  <si>
-    <t>C7N</t>
-  </si>
-  <si>
-    <t>C7A</t>
+    <t>C8A</t>
+  </si>
+  <si>
+    <t>C8IP</t>
+  </si>
+  <si>
+    <t>C8N</t>
   </si>
   <si>
     <t>C8NP</t>
   </si>
   <si>
-    <t>C8IP</t>
-  </si>
-  <si>
-    <t>C8N</t>
-  </si>
-  <si>
-    <t>C8A</t>
+    <t>C9A</t>
+  </si>
+  <si>
+    <t>C9IP</t>
+  </si>
+  <si>
+    <t>C9N</t>
   </si>
   <si>
     <t>C9NP</t>
   </si>
   <si>
-    <t>C9IP</t>
-  </si>
-  <si>
-    <t>C9N</t>
-  </si>
-  <si>
-    <t>C9A</t>
-  </si>
-  <si>
-    <t>C10NP</t>
-  </si>
-  <si>
-    <t>C10IP</t>
-  </si>
-  <si>
-    <t>C10N</t>
-  </si>
-  <si>
-    <t>C10A</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1</t>
+  </si>
+  <si>
+    <t>2019-12-25 11:26:08.774560</t>
+  </si>
+  <si>
+    <t>2019-12-25 11:26:16.606291</t>
+  </si>
+  <si>
+    <t>2019-12-25 11:28:16.793025</t>
+  </si>
+  <si>
+    <t>2019-12-25 12:59:14.598214</t>
+  </si>
+  <si>
+    <t>2019-12-25 12:59:58.406608</t>
+  </si>
+  <si>
+    <t>2019-12-25 13:02:27.706508</t>
   </si>
 </sst>
 </file>
@@ -443,199 +476,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:30">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.52</v>
+      </c>
+      <c r="C2">
+        <v>5.31</v>
+      </c>
+      <c r="D2">
+        <v>0.55</v>
+      </c>
+      <c r="E2">
+        <v>0.87</v>
+      </c>
+      <c r="F2">
+        <v>0.54</v>
+      </c>
+      <c r="G2">
+        <v>0.11</v>
+      </c>
+      <c r="H2">
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
+      <c r="J2">
+        <v>1.79</v>
+      </c>
+      <c r="K2">
+        <v>3.24</v>
+      </c>
+      <c r="L2">
+        <v>3.74</v>
+      </c>
+      <c r="M2">
+        <v>3.12</v>
+      </c>
+      <c r="N2">
+        <v>6.35</v>
+      </c>
+      <c r="O2">
+        <v>7.76</v>
+      </c>
+      <c r="P2">
+        <v>8.49</v>
+      </c>
+      <c r="Q2">
+        <v>6.48</v>
+      </c>
+      <c r="R2">
+        <v>9.32</v>
+      </c>
+      <c r="S2">
+        <v>6.47</v>
+      </c>
+      <c r="T2">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="U2">
+        <v>3.81</v>
+      </c>
+      <c r="V2">
+        <v>10.22</v>
+      </c>
+      <c r="W2">
+        <v>5.23</v>
+      </c>
+      <c r="X2">
+        <v>5.96</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3.11</v>
+      <c r="B3">
+        <v>1.12</v>
+      </c>
+      <c r="C3">
+        <v>3.72</v>
+      </c>
+      <c r="D3">
+        <v>0.86</v>
+      </c>
+      <c r="E3">
+        <v>1.39</v>
+      </c>
+      <c r="F3">
+        <v>0.7</v>
+      </c>
+      <c r="G3">
+        <v>0.21</v>
+      </c>
+      <c r="H3">
+        <v>0.99</v>
+      </c>
+      <c r="I3">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J3">
+        <v>2.02</v>
+      </c>
+      <c r="K3">
+        <v>5.5</v>
+      </c>
+      <c r="L3">
+        <v>2.66</v>
+      </c>
+      <c r="M3">
+        <v>3.69</v>
+      </c>
+      <c r="N3">
+        <v>4.84</v>
+      </c>
+      <c r="O3">
+        <v>17.1</v>
+      </c>
+      <c r="P3">
+        <v>5.28</v>
+      </c>
+      <c r="Q3">
+        <v>5.72</v>
+      </c>
+      <c r="R3">
+        <v>6.41</v>
+      </c>
+      <c r="S3">
+        <v>11.4</v>
+      </c>
+      <c r="T3">
+        <v>6.29</v>
+      </c>
+      <c r="U3">
+        <v>2.92</v>
+      </c>
+      <c r="V3">
+        <v>6.28</v>
+      </c>
+      <c r="W3">
+        <v>5.45</v>
+      </c>
+      <c r="X3">
+        <v>4.09</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:30">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.92</v>
+      <c r="B4">
+        <v>0.52</v>
+      </c>
+      <c r="C4">
+        <v>5.31</v>
+      </c>
+      <c r="D4">
+        <v>0.55</v>
+      </c>
+      <c r="E4">
+        <v>0.87</v>
+      </c>
+      <c r="F4">
+        <v>0.54</v>
+      </c>
+      <c r="G4">
+        <v>0.11</v>
+      </c>
+      <c r="H4">
+        <v>0.75</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+      <c r="J4">
+        <v>1.79</v>
+      </c>
+      <c r="K4">
+        <v>3.24</v>
+      </c>
+      <c r="L4">
+        <v>3.74</v>
+      </c>
+      <c r="M4">
+        <v>3.12</v>
+      </c>
+      <c r="N4">
+        <v>6.35</v>
+      </c>
+      <c r="O4">
+        <v>7.76</v>
+      </c>
+      <c r="P4">
+        <v>8.49</v>
+      </c>
+      <c r="Q4">
+        <v>6.48</v>
+      </c>
+      <c r="R4">
+        <v>9.32</v>
+      </c>
+      <c r="S4">
+        <v>6.47</v>
+      </c>
+      <c r="T4">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="U4">
+        <v>3.81</v>
+      </c>
+      <c r="V4">
+        <v>10.22</v>
+      </c>
+      <c r="W4">
+        <v>5.23</v>
+      </c>
+      <c r="X4">
+        <v>5.96</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:30">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.32</v>
+      <c r="B5">
+        <v>0.52</v>
+      </c>
+      <c r="C5">
+        <v>5.31</v>
+      </c>
+      <c r="D5">
+        <v>0.55</v>
+      </c>
+      <c r="E5">
+        <v>0.87</v>
+      </c>
+      <c r="F5">
+        <v>0.54</v>
+      </c>
+      <c r="G5">
+        <v>0.11</v>
+      </c>
+      <c r="H5">
+        <v>0.75</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <v>1.79</v>
+      </c>
+      <c r="K5">
+        <v>3.24</v>
+      </c>
+      <c r="L5">
+        <v>3.74</v>
+      </c>
+      <c r="M5">
+        <v>3.12</v>
+      </c>
+      <c r="N5">
+        <v>6.35</v>
+      </c>
+      <c r="O5">
+        <v>7.76</v>
+      </c>
+      <c r="P5">
+        <v>8.49</v>
+      </c>
+      <c r="Q5">
+        <v>6.48</v>
+      </c>
+      <c r="R5">
+        <v>9.32</v>
+      </c>
+      <c r="S5">
+        <v>6.47</v>
+      </c>
+      <c r="T5">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="U5">
+        <v>3.81</v>
+      </c>
+      <c r="V5">
+        <v>10.22</v>
+      </c>
+      <c r="W5">
+        <v>5.23</v>
+      </c>
+      <c r="X5">
+        <v>5.96</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:30">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2.96</v>
+      <c r="B6">
+        <v>0.52</v>
+      </c>
+      <c r="C6">
+        <v>5.31</v>
+      </c>
+      <c r="D6">
+        <v>0.55</v>
+      </c>
+      <c r="E6">
+        <v>0.87</v>
+      </c>
+      <c r="F6">
+        <v>0.54</v>
+      </c>
+      <c r="G6">
+        <v>0.11</v>
+      </c>
+      <c r="H6">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>0.6</v>
+      </c>
+      <c r="J6">
+        <v>1.79</v>
+      </c>
+      <c r="K6">
+        <v>3.24</v>
+      </c>
+      <c r="L6">
+        <v>3.74</v>
+      </c>
+      <c r="M6">
+        <v>3.12</v>
+      </c>
+      <c r="N6">
+        <v>6.35</v>
+      </c>
+      <c r="O6">
+        <v>7.76</v>
+      </c>
+      <c r="P6">
+        <v>8.49</v>
+      </c>
+      <c r="Q6">
+        <v>6.48</v>
+      </c>
+      <c r="R6">
+        <v>9.32</v>
+      </c>
+      <c r="S6">
+        <v>6.47</v>
+      </c>
+      <c r="T6">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="U6">
+        <v>3.81</v>
+      </c>
+      <c r="V6">
+        <v>10.22</v>
+      </c>
+      <c r="W6">
+        <v>5.23</v>
+      </c>
+      <c r="X6">
+        <v>5.96</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:30">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>19.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1.02</v>
+        <v>0.52</v>
+      </c>
+      <c r="C7">
+        <v>5.31</v>
+      </c>
+      <c r="D7">
+        <v>0.55</v>
+      </c>
+      <c r="E7">
+        <v>0.87</v>
+      </c>
+      <c r="F7">
+        <v>0.54</v>
+      </c>
+      <c r="G7">
+        <v>0.11</v>
+      </c>
+      <c r="H7">
+        <v>0.75</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+      <c r="J7">
+        <v>1.79</v>
+      </c>
+      <c r="K7">
+        <v>3.24</v>
+      </c>
+      <c r="L7">
+        <v>3.74</v>
+      </c>
+      <c r="M7">
+        <v>3.12</v>
+      </c>
+      <c r="N7">
+        <v>6.35</v>
+      </c>
+      <c r="O7">
+        <v>7.76</v>
+      </c>
+      <c r="P7">
+        <v>8.49</v>
+      </c>
+      <c r="Q7">
+        <v>6.48</v>
+      </c>
+      <c r="R7">
+        <v>9.32</v>
+      </c>
+      <c r="S7">
+        <v>6.47</v>
+      </c>
+      <c r="T7">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="U7">
+        <v>3.81</v>
+      </c>
+      <c r="V7">
+        <v>10.22</v>
+      </c>
+      <c r="W7">
+        <v>5.23</v>
+      </c>
+      <c r="X7">
+        <v>5.96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/static/predict_result.xlsx
+++ b/static/predict_result.xlsx
@@ -14,111 +14,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>T90</t>
+  </si>
+  <si>
+    <t>N+A</t>
+  </si>
+  <si>
+    <t>C5NP</t>
+  </si>
+  <si>
+    <t>C5IP</t>
+  </si>
+  <si>
+    <t>C5N</t>
+  </si>
+  <si>
+    <t>C6NP</t>
+  </si>
+  <si>
+    <t>C6IP</t>
+  </si>
+  <si>
+    <t>C6N</t>
+  </si>
+  <si>
+    <t>C6A</t>
+  </si>
+  <si>
+    <t>C7NP</t>
+  </si>
+  <si>
+    <t>C7IP</t>
+  </si>
+  <si>
+    <t>C7N</t>
+  </si>
+  <si>
+    <t>C7A</t>
+  </si>
+  <si>
+    <t>C8NP</t>
+  </si>
+  <si>
+    <t>C8IP</t>
+  </si>
+  <si>
+    <t>C8N</t>
+  </si>
+  <si>
+    <t>C8A</t>
+  </si>
+  <si>
+    <t>C9NP</t>
+  </si>
+  <si>
+    <t>C9IP</t>
+  </si>
+  <si>
+    <t>C9N</t>
+  </si>
+  <si>
+    <t>C9A</t>
+  </si>
+  <si>
+    <t>C10NP</t>
+  </si>
+  <si>
+    <t>C10IP</t>
+  </si>
+  <si>
+    <t>C10N</t>
+  </si>
   <si>
     <t>C10A</t>
   </si>
   <si>
-    <t>C10IP</t>
-  </si>
-  <si>
-    <t>C10N</t>
-  </si>
-  <si>
-    <t>C10NP</t>
-  </si>
-  <si>
-    <t>C5IP</t>
-  </si>
-  <si>
-    <t>C5N</t>
-  </si>
-  <si>
-    <t>C5NP</t>
-  </si>
-  <si>
-    <t>C6A</t>
-  </si>
-  <si>
-    <t>C6IP</t>
-  </si>
-  <si>
-    <t>C6N</t>
-  </si>
-  <si>
-    <t>C6NP</t>
-  </si>
-  <si>
-    <t>C7A</t>
-  </si>
-  <si>
-    <t>C7IP</t>
-  </si>
-  <si>
-    <t>C7N</t>
-  </si>
-  <si>
-    <t>C7NP</t>
-  </si>
-  <si>
-    <t>C8A</t>
-  </si>
-  <si>
-    <t>C8IP</t>
-  </si>
-  <si>
-    <t>C8N</t>
-  </si>
-  <si>
-    <t>C8NP</t>
-  </si>
-  <si>
-    <t>C9A</t>
-  </si>
-  <si>
-    <t>C9IP</t>
-  </si>
-  <si>
-    <t>C9N</t>
-  </si>
-  <si>
-    <t>C9NP</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1.1</t>
-  </si>
-  <si>
-    <t>2019-12-25 11:26:08.774560</t>
-  </si>
-  <si>
-    <t>2019-12-25 11:26:16.606291</t>
-  </si>
-  <si>
-    <t>2019-12-25 11:28:16.793025</t>
-  </si>
-  <si>
-    <t>2019-12-25 12:59:14.598214</t>
-  </si>
-  <si>
-    <t>2019-12-25 12:59:58.406608</t>
-  </si>
-  <si>
-    <t>2019-12-25 13:02:27.706508</t>
+    <t>2019-12-27 09:19:39.248738</t>
+  </si>
+  <si>
+    <t>2019-12-27 09:20:10.751212</t>
+  </si>
+  <si>
+    <t>2019-12-27 09:32:27.425694</t>
+  </si>
+  <si>
+    <t>2019-12-27 09:32:43.085304</t>
   </si>
 </sst>
 </file>
@@ -476,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,515 +558,361 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.52</v>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>5.31</v>
+        <v>100.5</v>
       </c>
       <c r="D2">
-        <v>0.55</v>
+        <v>125.4</v>
       </c>
       <c r="E2">
-        <v>0.87</v>
+        <v>146.5</v>
       </c>
       <c r="F2">
+        <v>54.454027</v>
+      </c>
+      <c r="G2">
+        <v>1.1</v>
+      </c>
+      <c r="H2">
+        <v>0.74</v>
+      </c>
+      <c r="I2">
+        <v>0.21</v>
+      </c>
+      <c r="J2">
+        <v>2.5</v>
+      </c>
+      <c r="K2">
+        <v>1.95</v>
+      </c>
+      <c r="L2">
+        <v>5.56</v>
+      </c>
+      <c r="M2">
+        <v>0.48</v>
+      </c>
+      <c r="N2">
+        <v>5.15</v>
+      </c>
+      <c r="O2">
+        <v>4.7</v>
+      </c>
+      <c r="P2">
+        <v>17.76</v>
+      </c>
+      <c r="Q2">
+        <v>3.74</v>
+      </c>
+      <c r="R2">
+        <v>6.73</v>
+      </c>
+      <c r="S2">
+        <v>6.04</v>
+      </c>
+      <c r="T2">
+        <v>11.48</v>
+      </c>
+      <c r="U2">
+        <v>6.88</v>
+      </c>
+      <c r="V2">
+        <v>4.22</v>
+      </c>
+      <c r="W2">
+        <v>6.79</v>
+      </c>
+      <c r="X2">
+        <v>5.19</v>
+      </c>
+      <c r="Y2">
+        <v>2.97</v>
+      </c>
+      <c r="Z2">
+        <v>1.03</v>
+      </c>
+      <c r="AA2">
+        <v>3.79</v>
+      </c>
+      <c r="AB2">
         <v>0.54</v>
       </c>
-      <c r="G2">
-        <v>0.11</v>
-      </c>
-      <c r="H2">
-        <v>0.75</v>
-      </c>
-      <c r="I2">
-        <v>0.6</v>
-      </c>
-      <c r="J2">
-        <v>1.79</v>
-      </c>
-      <c r="K2">
-        <v>3.24</v>
-      </c>
-      <c r="L2">
-        <v>3.74</v>
-      </c>
-      <c r="M2">
-        <v>3.12</v>
-      </c>
-      <c r="N2">
-        <v>6.35</v>
-      </c>
-      <c r="O2">
-        <v>7.76</v>
-      </c>
-      <c r="P2">
-        <v>8.49</v>
-      </c>
-      <c r="Q2">
-        <v>6.48</v>
-      </c>
-      <c r="R2">
-        <v>9.32</v>
-      </c>
-      <c r="S2">
-        <v>6.47</v>
-      </c>
-      <c r="T2">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="U2">
-        <v>3.81</v>
-      </c>
-      <c r="V2">
-        <v>10.22</v>
-      </c>
-      <c r="W2">
-        <v>5.23</v>
-      </c>
-      <c r="X2">
-        <v>5.96</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
       <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.12</v>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>3.72</v>
+        <v>100.5</v>
       </c>
       <c r="D3">
-        <v>0.86</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>1.39</v>
+        <v>140</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>0.21</v>
+        <v>0.98</v>
       </c>
       <c r="H3">
-        <v>0.99</v>
+        <v>0.59</v>
       </c>
       <c r="I3">
-        <v>0.5600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="J3">
-        <v>2.02</v>
+        <v>3.29</v>
       </c>
       <c r="K3">
-        <v>5.5</v>
+        <v>1.94</v>
       </c>
       <c r="L3">
-        <v>2.66</v>
+        <v>4.53</v>
       </c>
       <c r="M3">
-        <v>3.69</v>
+        <v>0.8</v>
       </c>
       <c r="N3">
-        <v>4.84</v>
+        <v>6.83</v>
       </c>
       <c r="O3">
-        <v>17.1</v>
+        <v>5.77</v>
       </c>
       <c r="P3">
-        <v>5.28</v>
+        <v>11.98</v>
       </c>
       <c r="Q3">
-        <v>5.72</v>
+        <v>3.61</v>
       </c>
       <c r="R3">
-        <v>6.41</v>
+        <v>8.06</v>
       </c>
       <c r="S3">
-        <v>11.4</v>
+        <v>8.15</v>
       </c>
       <c r="T3">
-        <v>6.29</v>
+        <v>8.43</v>
       </c>
       <c r="U3">
-        <v>2.92</v>
+        <v>6.85</v>
       </c>
       <c r="V3">
-        <v>6.28</v>
+        <v>4.8</v>
       </c>
       <c r="W3">
-        <v>5.45</v>
+        <v>8.83</v>
       </c>
       <c r="X3">
-        <v>4.09</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>30</v>
+        <v>5.31</v>
+      </c>
+      <c r="Y3">
+        <v>3.63</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>4.59</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.41</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.52</v>
+      <c r="B4" t="s">
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>5.31</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>0.55</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>0.87</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>0.54</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>3.4</v>
+      </c>
+      <c r="K4">
+        <v>2.2</v>
+      </c>
+      <c r="L4">
+        <v>4.5</v>
+      </c>
+      <c r="M4">
+        <v>0.8</v>
+      </c>
+      <c r="N4">
+        <v>6.6</v>
+      </c>
+      <c r="O4">
+        <v>5.4</v>
+      </c>
+      <c r="P4">
+        <v>11.8</v>
+      </c>
+      <c r="Q4">
+        <v>3.4</v>
+      </c>
+      <c r="R4">
+        <v>7.9</v>
+      </c>
+      <c r="S4">
+        <v>8.1</v>
+      </c>
+      <c r="T4">
+        <v>8.4</v>
+      </c>
+      <c r="U4">
+        <v>6.8</v>
+      </c>
+      <c r="V4">
+        <v>4.7</v>
+      </c>
+      <c r="W4">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="X4">
+        <v>5.2</v>
+      </c>
+      <c r="Y4">
+        <v>3.6</v>
+      </c>
+      <c r="Z4">
+        <v>0.8</v>
+      </c>
+      <c r="AA4">
+        <v>4.6</v>
+      </c>
+      <c r="AB4">
         <v>0.6</v>
       </c>
-      <c r="J4">
-        <v>1.79</v>
-      </c>
-      <c r="K4">
-        <v>3.24</v>
-      </c>
-      <c r="L4">
-        <v>3.74</v>
-      </c>
-      <c r="M4">
-        <v>3.12</v>
-      </c>
-      <c r="N4">
-        <v>6.35</v>
-      </c>
-      <c r="O4">
-        <v>7.76</v>
-      </c>
-      <c r="P4">
-        <v>8.49</v>
-      </c>
-      <c r="Q4">
-        <v>6.48</v>
-      </c>
-      <c r="R4">
-        <v>9.32</v>
-      </c>
-      <c r="S4">
-        <v>6.47</v>
-      </c>
-      <c r="T4">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="U4">
-        <v>3.81</v>
-      </c>
-      <c r="V4">
-        <v>10.22</v>
-      </c>
-      <c r="W4">
-        <v>5.23</v>
-      </c>
-      <c r="X4">
-        <v>5.96</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
+      <c r="AC4">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.52</v>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>5.31</v>
+        <v>100.5</v>
       </c>
       <c r="D5">
-        <v>0.55</v>
+        <v>125.4</v>
       </c>
       <c r="E5">
-        <v>0.87</v>
+        <v>142.2</v>
       </c>
       <c r="F5">
-        <v>0.54</v>
+        <v>54.454027</v>
       </c>
       <c r="G5">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
       <c r="K5">
-        <v>3.24</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.74</v>
+        <v>5.4</v>
       </c>
       <c r="M5">
-        <v>3.12</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
-        <v>6.35</v>
+        <v>5.2</v>
       </c>
       <c r="O5">
-        <v>7.76</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>8.49</v>
+        <v>17.3</v>
       </c>
       <c r="Q5">
-        <v>6.48</v>
+        <v>3.8</v>
       </c>
       <c r="R5">
-        <v>9.32</v>
+        <v>6.7</v>
       </c>
       <c r="S5">
-        <v>6.47</v>
+        <v>6.2</v>
       </c>
       <c r="T5">
-        <v>9.130000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="U5">
-        <v>3.81</v>
+        <v>6.4</v>
       </c>
       <c r="V5">
-        <v>10.22</v>
+        <v>4.2</v>
       </c>
       <c r="W5">
-        <v>5.23</v>
+        <v>7.3</v>
       </c>
       <c r="X5">
-        <v>5.96</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>32</v>
+        <v>5.1</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="AA5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.52</v>
-      </c>
-      <c r="C6">
-        <v>5.31</v>
-      </c>
-      <c r="D6">
-        <v>0.55</v>
-      </c>
-      <c r="E6">
-        <v>0.87</v>
-      </c>
-      <c r="F6">
-        <v>0.54</v>
-      </c>
-      <c r="G6">
-        <v>0.11</v>
-      </c>
-      <c r="H6">
-        <v>0.75</v>
-      </c>
-      <c r="I6">
-        <v>0.6</v>
-      </c>
-      <c r="J6">
-        <v>1.79</v>
-      </c>
-      <c r="K6">
-        <v>3.24</v>
-      </c>
-      <c r="L6">
-        <v>3.74</v>
-      </c>
-      <c r="M6">
-        <v>3.12</v>
-      </c>
-      <c r="N6">
-        <v>6.35</v>
-      </c>
-      <c r="O6">
-        <v>7.76</v>
-      </c>
-      <c r="P6">
-        <v>8.49</v>
-      </c>
-      <c r="Q6">
-        <v>6.48</v>
-      </c>
-      <c r="R6">
-        <v>9.32</v>
-      </c>
-      <c r="S6">
-        <v>6.47</v>
-      </c>
-      <c r="T6">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="U6">
-        <v>3.81</v>
-      </c>
-      <c r="V6">
-        <v>10.22</v>
-      </c>
-      <c r="W6">
-        <v>5.23</v>
-      </c>
-      <c r="X6">
-        <v>5.96</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.52</v>
-      </c>
-      <c r="C7">
-        <v>5.31</v>
-      </c>
-      <c r="D7">
-        <v>0.55</v>
-      </c>
-      <c r="E7">
-        <v>0.87</v>
-      </c>
-      <c r="F7">
-        <v>0.54</v>
-      </c>
-      <c r="G7">
-        <v>0.11</v>
-      </c>
-      <c r="H7">
-        <v>0.75</v>
-      </c>
-      <c r="I7">
-        <v>0.6</v>
-      </c>
-      <c r="J7">
-        <v>1.79</v>
-      </c>
-      <c r="K7">
-        <v>3.24</v>
-      </c>
-      <c r="L7">
-        <v>3.74</v>
-      </c>
-      <c r="M7">
-        <v>3.12</v>
-      </c>
-      <c r="N7">
-        <v>6.35</v>
-      </c>
-      <c r="O7">
-        <v>7.76</v>
-      </c>
-      <c r="P7">
-        <v>8.49</v>
-      </c>
-      <c r="Q7">
-        <v>6.48</v>
-      </c>
-      <c r="R7">
-        <v>9.32</v>
-      </c>
-      <c r="S7">
-        <v>6.47</v>
-      </c>
-      <c r="T7">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="U7">
-        <v>3.81</v>
-      </c>
-      <c r="V7">
-        <v>10.22</v>
-      </c>
-      <c r="W7">
-        <v>5.23</v>
-      </c>
-      <c r="X7">
-        <v>5.96</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>34</v>
+      <c r="AB5">
+        <v>0.7</v>
+      </c>
+      <c r="AC5">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/static/predict_result.xlsx
+++ b/static/predict_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>2019-12-27 09:32:43.085304</t>
+  </si>
+  <si>
+    <t>2020-01-15 12:38:31.806031</t>
+  </si>
+  <si>
+    <t>2020-01-15 12:40:09.192487</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,6 +921,184 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>1.1</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>3.2</v>
+      </c>
+      <c r="K6">
+        <v>2.4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0.8</v>
+      </c>
+      <c r="N6">
+        <v>6.6</v>
+      </c>
+      <c r="O6">
+        <v>4.6</v>
+      </c>
+      <c r="P6">
+        <v>11.5</v>
+      </c>
+      <c r="Q6">
+        <v>3.4</v>
+      </c>
+      <c r="R6">
+        <v>8.5</v>
+      </c>
+      <c r="S6">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T6">
+        <v>8.6</v>
+      </c>
+      <c r="U6">
+        <v>7.1</v>
+      </c>
+      <c r="V6">
+        <v>5.1</v>
+      </c>
+      <c r="W6">
+        <v>9.1</v>
+      </c>
+      <c r="X6">
+        <v>5.2</v>
+      </c>
+      <c r="Y6">
+        <v>3.5</v>
+      </c>
+      <c r="Z6">
+        <v>0.8</v>
+      </c>
+      <c r="AA6">
+        <v>4.6</v>
+      </c>
+      <c r="AB6">
+        <v>0.6</v>
+      </c>
+      <c r="AC6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>1.4</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3.3</v>
+      </c>
+      <c r="L7">
+        <v>5.3</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>4.5</v>
+      </c>
+      <c r="O7">
+        <v>3.2</v>
+      </c>
+      <c r="P7">
+        <v>14.1</v>
+      </c>
+      <c r="Q7">
+        <v>3.9</v>
+      </c>
+      <c r="R7">
+        <v>7.2</v>
+      </c>
+      <c r="S7">
+        <v>6.8</v>
+      </c>
+      <c r="T7">
+        <v>10.3</v>
+      </c>
+      <c r="U7">
+        <v>7.8</v>
+      </c>
+      <c r="V7">
+        <v>3.9</v>
+      </c>
+      <c r="W7">
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <v>5.6</v>
+      </c>
+      <c r="Y7">
+        <v>3.8</v>
+      </c>
+      <c r="Z7">
+        <v>0.7</v>
+      </c>
+      <c r="AA7">
+        <v>3.8</v>
+      </c>
+      <c r="AB7">
+        <v>0.8</v>
+      </c>
+      <c r="AC7">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/predict_result.xlsx
+++ b/static/predict_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>2020-01-15 12:40:09.192487</t>
+  </si>
+  <si>
+    <t>2020-01-15 13:02:27.135830</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,6 +1102,95 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>140</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>1.1</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
+        <v>3.2</v>
+      </c>
+      <c r="K8">
+        <v>2.4</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0.8</v>
+      </c>
+      <c r="N8">
+        <v>6.6</v>
+      </c>
+      <c r="O8">
+        <v>4.6</v>
+      </c>
+      <c r="P8">
+        <v>11.5</v>
+      </c>
+      <c r="Q8">
+        <v>3.4</v>
+      </c>
+      <c r="R8">
+        <v>8.5</v>
+      </c>
+      <c r="S8">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T8">
+        <v>8.6</v>
+      </c>
+      <c r="U8">
+        <v>7.1</v>
+      </c>
+      <c r="V8">
+        <v>5.1</v>
+      </c>
+      <c r="W8">
+        <v>9.1</v>
+      </c>
+      <c r="X8">
+        <v>5.2</v>
+      </c>
+      <c r="Y8">
+        <v>3.5</v>
+      </c>
+      <c r="Z8">
+        <v>0.8</v>
+      </c>
+      <c r="AA8">
+        <v>4.6</v>
+      </c>
+      <c r="AB8">
+        <v>0.6</v>
+      </c>
+      <c r="AC8">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
